--- a/inputs/cp.xlsx
+++ b/inputs/cp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316F447-6AE6-4812-BA2B-159A50D5B1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D65523-3AC8-4654-964F-E6B19BA59344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-1965" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -404,13 +404,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
-        <v>458033.4</v>
+        <v>416394</v>
       </c>
       <c r="E2">
-        <v>396000</v>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
@@ -451,15 +451,15 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
         <f>'2025'!D2*(1-0.25*0.2)</f>
-        <v>435131.73</v>
+        <v>395574.3</v>
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.2)</f>
-        <v>376200</v>
+        <v>342000</v>
       </c>
     </row>
   </sheetData>
@@ -500,15 +500,15 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
         <f>'2025'!D2*(1-0.25*0.4)</f>
-        <v>412230.06000000006</v>
+        <v>374754.60000000003</v>
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.4)</f>
-        <v>356400</v>
+        <v>324000</v>
       </c>
     </row>
   </sheetData>
@@ -549,15 +549,15 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
         <f>'2025'!D2*(1-0.25*0.6)</f>
-        <v>389328.39</v>
+        <v>353934.89999999997</v>
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.6)</f>
-        <v>336600</v>
+        <v>306000</v>
       </c>
     </row>
   </sheetData>
@@ -598,15 +598,15 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
         <f>'2025'!D2*(1-0.25*0.8)</f>
-        <v>366426.72000000003</v>
+        <v>333115.2</v>
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*0.8)</f>
-        <v>316800</v>
+        <v>288000</v>
       </c>
     </row>
   </sheetData>
@@ -647,15 +647,15 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6.0525000000000002</v>
+        <v>8.5787499999999994</v>
       </c>
       <c r="D2">
         <f>'2025'!D2*(1-0.25*1)</f>
-        <v>343525.05000000005</v>
+        <v>312295.5</v>
       </c>
       <c r="E2">
         <f>'2025'!E2*(1-0.25*1)</f>
-        <v>297000</v>
+        <v>270000</v>
       </c>
     </row>
   </sheetData>
